--- a/biology/Microbiologie/Fusobacteriota/Fusobacteriota.xlsx
+++ b/biology/Microbiologie/Fusobacteriota/Fusobacteriota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Fusobacteriota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Fusobacterium qui est le genre type de cet embranchement[1].
-En 2022 selon la LPSN  (18 novembre 2022)[2] cet embranchement ne comporte qu'une seule classe, les Fusobacteriia Staley &amp; Whitman 2012.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Fusobacteriota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Fusobacterium qui est le genre type de cet embranchement.
+En 2022 selon la LPSN  (18 novembre 2022) cet embranchement ne comporte qu'une seule classe, les Fusobacteriia Staley &amp; Whitman 2012.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé dès 2001 par G.M. Garrity et J.G. Holt dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Fusobacteria »[3]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[1] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Fusobacterium, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[4]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé dès 2001 par G.M. Garrity et J.G. Holt dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Fusobacteria ». Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Fusobacterium, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
